--- a/Round_2/Workbook.xlsx
+++ b/Round_2/Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aniket\Documents\MATLAB\Sarla\Round_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB272BE-FC80-4106-9BDD-1FAAACBAD128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D168B9-614B-427D-BE90-CD12189E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7AAA832-23A1-4E6C-AE2E-FA8C9AA0DBDF}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" xr2:uid="{D7AAA832-23A1-4E6C-AE2E-FA8C9AA0DBDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensors_Datasheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Sensor_Name</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Open Points</t>
   </si>
   <si>
-    <t>Can I use velocity from GPS?</t>
-  </si>
-  <si>
     <t>Pitot Tube</t>
   </si>
   <si>
@@ -112,6 +109,27 @@
   </si>
   <si>
     <t>no sensor in agreement</t>
+  </si>
+  <si>
+    <t>What happens when e12 = e23 but e31 &gt; e12 and e23</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>1m/s^2 and 1 deg/s</t>
+  </si>
+  <si>
+    <t>10 uT</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>2m/s</t>
+  </si>
+  <si>
+    <t>5m</t>
   </si>
 </sst>
 </file>
@@ -475,7 +493,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,6 +501,7 @@
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,7 +516,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -514,7 +536,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -528,7 +553,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -542,7 +570,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -556,52 +587,58 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
         <v>28</v>
       </c>
     </row>
